--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -127,13 +127,31 @@
   </si>
   <si>
     <t>PUBLONS001</t>
+  </si>
+  <si>
+    <t>OPQA-5885||OPQA-5888</t>
+  </si>
+  <si>
+    <t>OPQA-5884||OPQA-5887</t>
+  </si>
+  <si>
+    <t>User Sign In  Publon's using valid facebook username and password from login page then it should redirected to Publon's Home page.</t>
+  </si>
+  <si>
+    <t>User Sign In Publon's using valid gmail username and password from login page then it should redirected to Publon's Home page.</t>
+  </si>
+  <si>
+    <t>PUBLONS020</t>
+  </si>
+  <si>
+    <t>PUBLONS021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +173,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,6 +250,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +631,232 @@
         <v>5</v>
       </c>
       <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>PUBLONS021</t>
+  </si>
+  <si>
+    <t>PUBLONS022</t>
+  </si>
+  <si>
+    <t>OPQA-5890</t>
+  </si>
+  <si>
+    <t>Verify Error message when user  exist in platform in suspend state and trying to login.</t>
   </si>
 </sst>
 </file>
@@ -587,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +791,18 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Verify Error message when user  exist in platform in suspend state and trying to login.</t>
+  </si>
+  <si>
+    <t>PUBLONS023</t>
+  </si>
+  <si>
+    <t>PUBLONS024</t>
+  </si>
+  <si>
+    <t>OPQA-5891</t>
+  </si>
+  <si>
+    <t>OPQA-5892</t>
+  </si>
+  <si>
+    <t>Verify Error message when user  exist in platform in Blocked state and trying to login.</t>
+  </si>
+  <si>
+    <t>Verify Error message when user  exist in platform in Evicted state and trying to login.</t>
   </si>
 </sst>
 </file>
@@ -597,7 +615,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,17 +824,33 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="WAT09" sheetId="2" r:id="rId2"/>
-    <sheet name="WAT13" sheetId="4" r:id="rId3"/>
+    <sheet name="PUBLONS005" sheetId="5" r:id="rId2"/>
+    <sheet name="WAT09" sheetId="2" r:id="rId3"/>
+    <sheet name="WAT13" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -172,13 +173,79 @@
   </si>
   <si>
     <t>Verify Error message when user  exist in platform in Evicted state and trying to login.</t>
+  </si>
+  <si>
+    <t>PUBLONS002</t>
+  </si>
+  <si>
+    <t>PUBLONS003</t>
+  </si>
+  <si>
+    <t>OPQA-5765</t>
+  </si>
+  <si>
+    <t>Verify that email address field should be in standard email ID format .Email address fields should be mandatory.</t>
+  </si>
+  <si>
+    <t>Verify that error message "Please enter an email address" whenever not enter any text in email field</t>
+  </si>
+  <si>
+    <t>OPQA-5766</t>
+  </si>
+  <si>
+    <t>PUBLONS004</t>
+  </si>
+  <si>
+    <t>OPQA-5767</t>
+  </si>
+  <si>
+    <t>Verify that error message "Please enter a valid email address" whenever enter wrong format in email field</t>
+  </si>
+  <si>
+    <t>CHARACTER LENGTH</t>
+  </si>
+  <si>
+    <t>SUFFIX</t>
+  </si>
+  <si>
+    <t>ERROR TEXT</t>
+  </si>
+  <si>
+    <t>VALIDITY</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>@abc.com</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Please enter no more than 255 characters.</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PUBLONS005</t>
+  </si>
+  <si>
+    <t>Verify that error message "Email address is too long." whenever enter more than 255 characters in email field&amp;&amp;Verify that email address field should be in standard email ID format .Email address fields should be mandatory.</t>
+  </si>
+  <si>
+    <t>OPQA-5768&amp;&amp;OPQA-5765</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +273,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -258,10 +332,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,8 +358,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -614,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,31 +741,63 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,6 +1029,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>246</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>247</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>248</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1251,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="PUBLONS005" sheetId="5" r:id="rId2"/>
-    <sheet name="WAT09" sheetId="2" r:id="rId3"/>
-    <sheet name="WAT13" sheetId="4" r:id="rId4"/>
+    <sheet name="PUBLONS009" sheetId="6" r:id="rId2"/>
+    <sheet name="PUBLONS005" sheetId="5" r:id="rId3"/>
+    <sheet name="WAT09" sheetId="2" r:id="rId4"/>
+    <sheet name="WAT13" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="80">
   <si>
     <t>TCID</t>
   </si>
@@ -239,6 +240,24 @@
   </si>
   <si>
     <t>OPQA-5768&amp;&amp;OPQA-5765</t>
+  </si>
+  <si>
+    <t>OPQA-5781</t>
+  </si>
+  <si>
+    <t>PUBLONS008</t>
+  </si>
+  <si>
+    <t>Verify that error message "Please enter your last name." whenever not enter any text in email field</t>
+  </si>
+  <si>
+    <t>PUBLONS009</t>
+  </si>
+  <si>
+    <t>OPQA-5782&amp;&amp;OPQA-5783</t>
+  </si>
+  <si>
+    <t>Verify that last name should be maximum of 50 characters long and these fields should not be empty.&amp;&amp;Verify that error message Last name is too long." whenever enter more than 50 characters</t>
   </si>
 </sst>
 </file>
@@ -696,7 +715,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,17 +820,33 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,6 +1064,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>51</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1130,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1466,7 +1572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>TCID</t>
   </si>
@@ -258,6 +258,33 @@
   </si>
   <si>
     <t>Verify that last name should be maximum of 50 characters long and these fields should not be empty.&amp;&amp;Verify that error message Last name is too long." whenever enter more than 50 characters</t>
+  </si>
+  <si>
+    <t>PUBLONS006</t>
+  </si>
+  <si>
+    <t>OPQA-5779&amp;&amp;OPQA-5780</t>
+  </si>
+  <si>
+    <t>Verify that error message "First name is too long." whenever enter more than 50 characters&amp;&amp;Verify that first name should be maximum of 50 characters long and these fields should not be empty.</t>
+  </si>
+  <si>
+    <t>PUBLONS007</t>
+  </si>
+  <si>
+    <t>OPQA-5778</t>
+  </si>
+  <si>
+    <t>Verify that error message "Please enter your first name." whenever not enter any text in email field</t>
+  </si>
+  <si>
+    <t>PUBLONS010</t>
+  </si>
+  <si>
+    <t>OPQA-5784&amp;&amp;OPQA-5785</t>
+  </si>
+  <si>
+    <t>Verify that "Your email address is already registered. Please sign in." error message whenever try to create publons user using existing account.&amp;&amp;Verify that email address prepopulated in sign in page whenever try to register user using existing user</t>
   </si>
 </sst>
 </file>
@@ -715,7 +742,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,25 +876,49 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="2415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="2415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="PUBLONS009" sheetId="6" r:id="rId2"/>
-    <sheet name="PUBLONS005" sheetId="5" r:id="rId3"/>
-    <sheet name="WAT09" sheetId="2" r:id="rId4"/>
-    <sheet name="WAT13" sheetId="4" r:id="rId5"/>
+    <sheet name="PUBLONS006" sheetId="7" r:id="rId2"/>
+    <sheet name="PUBLONS009" sheetId="6" r:id="rId3"/>
+    <sheet name="PUBLONS005" sheetId="5" r:id="rId4"/>
+    <sheet name="WAT09" sheetId="2" r:id="rId5"/>
+    <sheet name="WAT13" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="89">
   <si>
     <t>TCID</t>
   </si>
@@ -741,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,6 +1120,77 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>51</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1185,11 +1257,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1623,7 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="2415" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="2415"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="95">
   <si>
     <t>TCID</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>Verify that "Your email address is already registered. Please sign in." error message whenever try to create publons user using existing account.&amp;&amp;Verify that email address prepopulated in sign in page whenever try to register user using existing user</t>
+  </si>
+  <si>
+    <t>PUBLONS013</t>
+  </si>
+  <si>
+    <t>OPQA-5771||OPQA-5772||OPQA-5773||OPQA-5774||OPQA-5775||OPQA-5776||OPQA-5777||OPQA-6000</t>
+  </si>
+  <si>
+    <t>Verify Password must have at least one special character from !@#$%^*()~`{}[] in Registration  page||Verify Password must contain at least one number is ALWAYS enforced in Registration  page||Verify Password must have at least one alphabet character either upper or lower case is ALWAYS enforced in Registration  page||Verify that the Password minimum length of 8 characters is ALWAYS enforced in Registration  page.||Verify Password Maximum Length of 95 characters is ALWAYS enforced in Registration  page||Verify that error message "Password is too long" whenever enter more than 95 characters||Verify that "View password rules on the right" error message at the time of entering password||Verify that "Should not have leading and trailing spaces" error message at the time of entering password</t>
+  </si>
+  <si>
+    <t>OPQA-5770</t>
+  </si>
+  <si>
+    <t>Verify that error message "Please enter a password." whenever not enter any text in email field</t>
+  </si>
+  <si>
+    <t>PUBLONS014</t>
   </si>
 </sst>
 </file>
@@ -742,14 +760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="138.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -922,18 +940,34 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="101">
   <si>
     <t>TCID</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>PUBLONS014</t>
+  </si>
+  <si>
+    <t>PUBLONS015</t>
+  </si>
+  <si>
+    <t>OPQA-5842</t>
+  </si>
+  <si>
+    <t>Verify that password change text fields displaying or not when ever click "Password"" link in Account setting page</t>
+  </si>
+  <si>
+    <t>PUBLONS016</t>
+  </si>
+  <si>
+    <t>OPQA-5817||OPQA-5818||OPQA-5819||OPQA-6002||OPQA-5837||OPQA-5838||OPQA-5841</t>
+  </si>
+  <si>
+    <t>Verify that Forgot your password? Link is clickable on publons Landing page||Verify that the publons should be displayed on the forgot password page&amp;&amp;Verify that 'publons' should be moved within the white area and should be above 'Forgot Password' text||Verify that the system is navigating to Forgot Password page or not, after clicking on Forgot your password? Link&amp;Verify that,the system should support a publons password reset workflow||Verify that when Email address is known from password reset token,error message 'The email address is prepopulated.' should be displayed and email address field should be editable ||Verify that when Email address is not known from password reset token,email address field should be blank and user should be able to enter any email||Verify that error message Please enter a valid email address.should be displayed in red color when user enters email address in wrong format||Verify that Cancel link working in forgot password page</t>
   </si>
 </sst>
 </file>
@@ -760,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,17 +989,33 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -309,12 +309,6 @@
     <t>PUBLONS015</t>
   </si>
   <si>
-    <t>OPQA-5842</t>
-  </si>
-  <si>
-    <t>Verify that password change text fields displaying or not when ever click "Password"" link in Account setting page</t>
-  </si>
-  <si>
     <t>PUBLONS016</t>
   </si>
   <si>
@@ -322,6 +316,44 @@
   </si>
   <si>
     <t>Verify that Forgot your password? Link is clickable on publons Landing page||Verify that the publons should be displayed on the forgot password page&amp;&amp;Verify that 'publons' should be moved within the white area and should be above 'Forgot Password' text||Verify that the system is navigating to Forgot Password page or not, after clicking on Forgot your password? Link&amp;Verify that,the system should support a publons password reset workflow||Verify that when Email address is known from password reset token,error message 'The email address is prepopulated.' should be displayed and email address field should be editable ||Verify that when Email address is not known from password reset token,email address field should be blank and user should be able to enter any email||Verify that error message Please enter a valid email address.should be displayed in red color when user enters email address in wrong format||Verify that Cancel link working in forgot password page</t>
+  </si>
+  <si>
+    <t>OPQA-5842||
+OPQA-5843||
+OPQA-5844||
+OPQA-5845||
+OPQA-5846||
+OPQA-5847||
+OPQA-5848||
+OPQA-5849||
+OPQA-5850||
+OPQA-5851||
+OPQA-5852||
+OPQA-5853||
+OPQA-5854||
+OPQA-5855||
+OPQA-5856||
+OPQA-5857||
+OPQA-5858</t>
+  </si>
+  <si>
+    <t>Verify that password change text fields displaying or not when ever click "Password"" link in Account setting page||
+Verify that "Forgot password?"  link displaying in Account setting page when ever click "Password"" link in Account setting page||
+Verify that "Clear" link displaying in Account setting page when ever click "Password"" link in Account setting page||
+Verify that submit button disable or not when ever enter wrong format password or empty fields||
+Verify that "Please enter current password." error message when ever current password text field empty||
+Verify Password must have at least one special character from !@#$%^*()~`{}[] in account setting page||
+Verify Password must contain at least one number is ALWAYS enforced in account setting page||
+Verify Password must have at least one alphabet character either upper or lower case is ALWAYS enforced in account setting page||
+Verify that the Password minimum length of 8 characters is ALWAYS enforced in account setting page.||
+Verify that error message ""Incorrect password. Please try again."" when enter Incorrect existing STeAM password in old password field for account setting page.||
+Verify that error message ""New password should not match current password."" when enter Old and New password are same in account setting page.||
+Verify that error message "New password should not match previous 4 passwords."" when enter new password match with previous four passwords.||
+Verify that user receive a conformation mail when user changed password in account setting page.||
+Verify that Password rules are displaying when New STeAM password does not meet password requirements in account setting page||
+Verify Password Maximum Length of 95 characters is ALWAYS enforced in account setting page||
+Verify that ""Forgot password?"" link working correctly when click "Change Password"" link in Account setting page and that he is able to login with his new password"||
+Verify that text fields are clear when ever click "Clear" link in Account setting page</t>
   </si>
 </sst>
 </file>
@@ -778,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,15 +1020,15 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>96</v>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
@@ -1005,13 +1037,13 @@
     </row>
     <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="110">
   <si>
     <t>TCID</t>
   </si>
@@ -354,6 +354,44 @@
 Verify Password Maximum Length of 95 characters is ALWAYS enforced in account setting page||
 Verify that ""Forgot password?"" link working correctly when click "Change Password"" link in Account setting page and that he is able to login with his new password"||
 Verify that text fields are clear when ever click "Clear" link in Account setting page</t>
+  </si>
+  <si>
+    <t>PUBLONS011</t>
+  </si>
+  <si>
+    <t>OPQA-5986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Customer care component links for all applications
+CMTY - 'community.info@clarivate.com' linked to community.info@clarivate.com email
+CADP - 'Customer Support' linked to https://support.clarivate.com/s/
+DRA - 'Drug Research Advisor Customer Care' linked to https://support.clarivate.com/LifeSciences/
+CMC - 'Cortellis CMC Intelligence Customer Care' linked to https://support.clarivate.com/LifeSciences/
+INTEGRITY - 'Integrity Customer Care' linked to https://support.clarivate.com/LifeSciences/
+ENDNOTE - 'EndNote Customer Care' linked to http://endnote.com/support
+IPA - 'IPA.support@thomsonreuters.com' linked to IPA.support@thomsonreuters.com
+PUBLONS - 'Customer Care' linked to info@publons.com
+PSA - 'community.info@clarivate.com' linked to community.info@clarivate.com
+WAT - 'sarlabs.info@clarivate.com' linked to sarlabs.info@clarivate.com
+</t>
+  </si>
+  <si>
+    <t>PUBLONS012</t>
+  </si>
+  <si>
+    <t>OPQA-5859&amp;&amp;OPQA-5860</t>
+  </si>
+  <si>
+    <t>Verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly in publons landing page &amp;&amp; Verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly in publons Registration page</t>
+  </si>
+  <si>
+    <t>OPQA-5984</t>
+  </si>
+  <si>
+    <t>Verify that Email should be transferred when switching from sign in to register for CMTY,PUBLONS,ENDNOTE</t>
+  </si>
+  <si>
+    <t>PUBLONS017</t>
   </si>
 </sst>
 </file>
@@ -810,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,32 +1088,64 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
+    <row r="17" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -392,6 +392,21 @@
   </si>
   <si>
     <t>PUBLONS017</t>
+  </si>
+  <si>
+    <t>Verify that user account for email address was not found, then auth iframe shows registration page with fn, ln, email prepopulated</t>
+  </si>
+  <si>
+    <t>OPQA-5862</t>
+  </si>
+  <si>
+    <t>PUBLONS019</t>
+  </si>
+  <si>
+    <t>OPQA-5784&amp;&amp;OPQA-5785&amp;&amp;OPQA-5861</t>
+  </si>
+  <si>
+    <t>Verify that "Your email address is already registered. Please sign in." error message whenever try to create publons user using existing account.&amp;&amp;Verify that email address prepopulated in sign in page whenever try to register user using existing user&amp;&amp;Verify that user account for email address was found, then auth iframe shows sign-in page</t>
   </si>
 </sst>
 </file>
@@ -848,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,15 +1028,15 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -1224,10 +1239,18 @@
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="118">
   <si>
     <t>TCID</t>
   </si>
@@ -407,6 +407,45 @@
   </si>
   <si>
     <t>Verify that "Your email address is already registered. Please sign in." error message whenever try to create publons user using existing account.&amp;&amp;Verify that email address prepopulated in sign in page whenever try to register user using existing user&amp;&amp;Verify that user account for email address was found, then auth iframe shows sign-in page</t>
+  </si>
+  <si>
+    <t>PUBLONS018</t>
+  </si>
+  <si>
+    <t>OPQA-5823||
+OPQA-5824||
+OPQA-5825||
+OPQA-5826||
+OPQA-5827||
+OPQA-5828||
+OPQA-5829||
+OPQA-5830||
+OPQA-5831||
+OPQA-5832||
+OPQA-5833||
+OPQA-5834||
+OPQA-5835||
+OPQA-5836||
+OPQA-5839||
+OPQA-5840</t>
+  </si>
+  <si>
+    <t>Verify that the platform password reset service should send a platform forget password email with branding that corresponds with the originating application as per wireframe||
+Verify that When the password reset token in the email is valid, upon clicking the password reset link in the the platform forget password email, the user shall be taken to the External Password Reset Page||
+Verify that publons should be moved within the white area and should be above 'Reset your Project Neon password' text and center aligned||
+Verify Password must have at least one special character from !@#$%^*()~`{}[]| in reset password page||
+Verify  Password must contain at least one number is ALWAYS enforced in password reset page||
+Verify Password must have at least one alphabet character either upper or lower case is ALWAYS enforced in reset password page.||
+Verify Password Maximum Length of 95 characters is ALWAYS enforced in reset password page.||
+Verify that the Password minimum length of 8 characters is ALWAYS enforced in reset password page.||
+Verify that when reset Password Token already used user should be taken to sign in screen||
+Verify that upon successful submission of a password change, The user should receive a password change confirmation email to the user's primary email address with branding that corresponds with the application that the user completed the password change||
+Verify that the password change confirmation email should reference the fact that credentials are shared across all products.||
+Verify that when the password reset token in the email is expired or already used, upon clicking the password reset link in the the platform forget password email, the user should be taken to the External Invalid Password Reset Token Page.||
+Verify that the email address on the External Invalid Password Reset Token Page should be pre-populated with the email address that matches the email that the forgot password email was sent.||
+Verify that user who clicks the submit button on the the External Invalid Password Reset Token page, should be taken to the target application sign in page.||
+Verify that error message New password should not match current password. when enter Old and New password are same in reset password page.||
+Verify that error message New password should not match previous 4 passwords. when enter new password match with previous four passwords in reset password page."</t>
   </si>
 </sst>
 </file>
@@ -861,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,15 +1202,15 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>5</v>
@@ -1180,13 +1219,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>111</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>5</v>
@@ -1195,13 +1234,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>5</v>
@@ -1210,13 +1249,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>5</v>
@@ -1225,13 +1264,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
@@ -1240,13 +1279,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>5</v>
@@ -1254,17 +1293,21 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,6 +1344,20 @@
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -446,6 +446,24 @@
 Verify that user who clicks the submit button on the the External Invalid Password Reset Token page, should be taken to the target application sign in page.||
 Verify that error message New password should not match current password. when enter Old and New password are same in reset password page.||
 Verify that error message New password should not match previous 4 passwords. when enter new password match with previous four passwords in reset password page."</t>
+  </si>
+  <si>
+    <t>PUBLONS025</t>
+  </si>
+  <si>
+    <t>OPQA-5893||OPQA-5894||OPQA-5899</t>
+  </si>
+  <si>
+    <t>Verify the linking model should display when user sign in using facebook and enters matching account from the login page||Verify the User is redirected to Publon's Homepage when User enters correct credentials for matching facebook account and Also verify user can see two connected  account on account setting page one is facebook and another is Steam account.||Verify User should not challenged linking model when Facebook is already linked with STeAM.</t>
+  </si>
+  <si>
+    <t>PUBLONS026</t>
+  </si>
+  <si>
+    <t>OPQA-5897||OPQA-5898||OPQA-5999</t>
+  </si>
+  <si>
+    <t>Verify the linking model should display when user sign in using Gmail and enters matching account from the login page||Verify the User is redirected to Publon's Homepage when User enters correct credentials for matching Gmail account and Also verify user can see two connected  account on account setting page one is Gmail and another is Steam account.||Verify User should not challenged linking model when Gmail is already linked with STeAM.</t>
   </si>
 </sst>
 </file>
@@ -902,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,14 +1325,34 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
   <si>
     <t>TCID</t>
   </si>
@@ -280,12 +280,6 @@
   </si>
   <si>
     <t>PUBLONS010</t>
-  </si>
-  <si>
-    <t>OPQA-5784&amp;&amp;OPQA-5785</t>
-  </si>
-  <si>
-    <t>Verify that "Your email address is already registered. Please sign in." error message whenever try to create publons user using existing account.&amp;&amp;Verify that email address prepopulated in sign in page whenever try to register user using existing user</t>
   </si>
   <si>
     <t>PUBLONS013</t>
@@ -918,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,10 +1084,10 @@
         <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -1102,13 +1096,13 @@
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -1117,13 +1111,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
@@ -1132,13 +1126,13 @@
     </row>
     <row r="14" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
@@ -1147,52 +1141,52 @@
     </row>
     <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>105</v>
@@ -1205,30 +1199,30 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="345" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>5</v>
@@ -1237,13 +1231,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>5</v>
@@ -1252,13 +1246,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>5</v>
@@ -1267,13 +1261,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>5</v>
@@ -1282,13 +1276,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
@@ -1297,62 +1291,54 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1389,13 +1375,6 @@
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
       <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>Verify the linking model should display when user sign in using Gmail and enters matching account from the login page||Verify the User is redirected to Publon's Homepage when User enters correct credentials for matching Gmail account and Also verify user can see two connected  account on account setting page one is Gmail and another is Steam account.||Verify User should not challenged linking model when Gmail is already linked with STeAM.</t>
+  </si>
+  <si>
+    <t>PUBLONS031</t>
+  </si>
+  <si>
+    <t>NILL</t>
+  </si>
+  <si>
+    <t>Add email alias</t>
   </si>
 </sst>
 </file>
@@ -914,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,10 +1365,18 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
   <si>
     <t>TCID</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>OPQA-TBD</t>
-  </si>
-  <si>
-    <t>Verify that user is able to login WoS Author Transformation Application using valid WAT Entitled account</t>
-  </si>
-  <si>
     <t>errorMessage</t>
   </si>
   <si>
@@ -177,16 +171,7 @@
     <t>Verify Error message when user  exist in platform in Evicted state and trying to login.</t>
   </si>
   <si>
-    <t>PUBLONS002</t>
-  </si>
-  <si>
     <t>PUBLONS003</t>
-  </si>
-  <si>
-    <t>OPQA-5765</t>
-  </si>
-  <si>
-    <t>Verify that email address field should be in standard email ID format .Email address fields should be mandatory.</t>
   </si>
   <si>
     <t>Verify that error message "Please enter an email address" whenever not enter any text in email field</t>
@@ -467,6 +452,12 @@
   </si>
   <si>
     <t>Add email alias</t>
+  </si>
+  <si>
+    <t>OPQA-5791</t>
+  </si>
+  <si>
+    <t>Verify that user is able to sign in publons application with STeAM credentials</t>
   </si>
 </sst>
 </file>
@@ -921,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,13 +946,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -970,13 +961,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>5</v>
@@ -988,55 +979,55 @@
         <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -1045,110 +1036,110 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>94</v>
       </c>
@@ -1163,60 +1154,60 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="345" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>5</v>
@@ -1225,13 +1216,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>5</v>
@@ -1240,13 +1231,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>5</v>
@@ -1255,13 +1246,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>40</v>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>5</v>
@@ -1270,13 +1261,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>5</v>
@@ -1285,62 +1276,54 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,25 +1341,25 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,13 +1368,6 @@
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1411,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,13 +1404,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,13 +1418,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,13 +1432,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1482,16 +1458,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,13 +1475,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,13 +1489,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,13 +1503,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1559,22 +1535,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,17 +1558,17 @@
         <v>246</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,17 +1576,17 @@
         <v>247</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,19 +1594,19 @@
         <v>248</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1661,10 +1637,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1675,10 +1651,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1687,10 +1663,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1699,10 +1675,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1711,10 +1687,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1723,10 +1699,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1735,10 +1711,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1747,10 +1723,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1759,10 +1735,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1771,10 +1747,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1783,10 +1759,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1795,10 +1771,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1807,10 +1783,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1819,10 +1795,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1831,10 +1807,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1843,10 +1819,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -1855,10 +1831,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1867,10 +1843,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1879,10 +1855,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1891,10 +1867,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1903,10 +1879,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -1915,10 +1891,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1927,10 +1903,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -1939,10 +1915,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -1951,10 +1927,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -1963,10 +1939,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -1997,10 +1973,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -2011,10 +1987,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2023,10 +1999,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2035,10 +2011,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -2047,10 +2023,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2059,10 +2035,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2071,10 +2047,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -2083,10 +2059,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -2095,10 +2071,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -2107,10 +2083,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -2119,10 +2095,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -2131,10 +2107,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2143,10 +2119,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -2155,10 +2131,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -2167,10 +2143,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -2179,10 +2155,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -2191,10 +2167,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -2203,10 +2179,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -2215,10 +2191,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -2227,10 +2203,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -2239,10 +2215,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -2251,10 +2227,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -2263,10 +2239,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -2275,10 +2251,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -2287,10 +2263,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -2299,10 +2275,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>Verify that user is able to sign in publons application with STeAM credentials</t>
+  </si>
+  <si>
+    <t>PUBLONS027</t>
+  </si>
+  <si>
+    <t>OPQA-5895||OPQA-5896||OPQA-5999</t>
+  </si>
+  <si>
+    <t>Verify the linking model should display when user sign in using Linkedln and enters matching account from the login page||Verify the User is redirected to Publon's Homepage when User enters correct credentials for matching Linkedln account and Also verify user can see two connected  account on account setting page one is Linkedln and another is Steam account.||Verify User should not challenged linking model when Linkedln is already linked with STeAM.</t>
   </si>
 </sst>
 </file>
@@ -914,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,11 +1328,19 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>TCID</t>
   </si>
@@ -467,6 +467,51 @@
   </si>
   <si>
     <t>Verify the linking model should display when user sign in using Linkedln and enters matching account from the login page||Verify the User is redirected to Publon's Homepage when User enters correct credentials for matching Linkedln account and Also verify user can see two connected  account on account setting page one is Linkedln and another is Steam account.||Verify User should not challenged linking model when Linkedln is already linked with STeAM.</t>
+  </si>
+  <si>
+    <t>OPQA-5900</t>
+  </si>
+  <si>
+    <t>Verify user cannot log in and it should display "contact customer support." message when the matching account is already linked to the provider of the signed in user.</t>
+  </si>
+  <si>
+    <t>PUBLONS028</t>
+  </si>
+  <si>
+    <t>OPQA-5901</t>
+  </si>
+  <si>
+    <t>OPQA-5902</t>
+  </si>
+  <si>
+    <t>PUBLONS029</t>
+  </si>
+  <si>
+    <t>PUBLONS030</t>
+  </si>
+  <si>
+    <t>PUBLONS032</t>
+  </si>
+  <si>
+    <t>OPQA-5903</t>
+  </si>
+  <si>
+    <t>OPQA-5904</t>
+  </si>
+  <si>
+    <t>PUBLONS033</t>
+  </si>
+  <si>
+    <t>Verify user cannot log in and it should display appropriate error messag when Matching account exist in platform but in blocked state.</t>
+  </si>
+  <si>
+    <t>Verify user cannot log in and it should display appropriate error message when Matching account exist in platform but in evicted state.</t>
+  </si>
+  <si>
+    <t>Verify user cannot log in and it should display appropriate error message when Matching account exist in platform but in locked state.</t>
+  </si>
+  <si>
+    <t>Verify user cannot log in and it should display appropriate error message when Matching account  registered but not activated.</t>
   </si>
 </sst>
 </file>
@@ -921,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,52 +1388,93 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B29:B30" r:id="rId1" display="https://jira.clarivate.io/browse/OPQA-5898"/>
+    <hyperlink ref="B32:B33" r:id="rId2" display="https://jira.clarivate.io/browse/OPQA-5898"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -448,12 +448,6 @@
     <t>PUBLONS031</t>
   </si>
   <si>
-    <t>NILL</t>
-  </si>
-  <si>
-    <t>Add email alias</t>
-  </si>
-  <si>
     <t>OPQA-5791</t>
   </si>
   <si>
@@ -512,6 +506,12 @@
   </si>
   <si>
     <t>Verify user cannot log in and it should display appropriate error message when Matching account  registered but not activated.</t>
+  </si>
+  <si>
+    <t>OPQA-5993</t>
+  </si>
+  <si>
+    <t>Verify User able to add alias account after click on "Add email address" and enter valid emil id .</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,10 +1003,10 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>5</v>
@@ -1390,39 +1390,39 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8"/>
@@ -1432,10 +1432,10 @@
         <v>117</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>5</v>
@@ -1444,26 +1444,26 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8"/>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
   <si>
     <t>TCID</t>
   </si>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1398,9 @@
       <c r="C28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,7 +1413,9 @@
       <c r="C29" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,7 +1428,9 @@
       <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,7 +1458,9 @@
       <c r="C32" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,7 +1473,9 @@
       <c r="C33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E33" s="8"/>
     </row>
   </sheetData>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
   <si>
     <t>TCID</t>
   </si>
@@ -512,6 +512,30 @@
   </si>
   <si>
     <t>Verify User able to add alias account after click on "Add email address" and enter valid emil id .</t>
+  </si>
+  <si>
+    <t>PUBLONS034</t>
+  </si>
+  <si>
+    <t>PUBLONS035</t>
+  </si>
+  <si>
+    <t>PUBLONS036</t>
+  </si>
+  <si>
+    <t>PUBLONS037</t>
+  </si>
+  <si>
+    <t>PUBLONS038</t>
+  </si>
+  <si>
+    <t>PUBLONS039</t>
+  </si>
+  <si>
+    <t>PUBLONS040</t>
+  </si>
+  <si>
+    <t>PUBLONS041</t>
   </si>
 </sst>
 </file>
@@ -612,7 +636,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -966,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,36 +1479,143 @@
       <c r="A32" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="8"/>
+      <c r="D41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B29:B30" r:id="rId1" display="https://jira.clarivate.io/browse/OPQA-5898"/>
-    <hyperlink ref="B32:B33" r:id="rId2" display="https://jira.clarivate.io/browse/OPQA-5898"/>
+    <hyperlink ref="B40:B41" r:id="rId2" display="https://jira.clarivate.io/browse/OPQA-5898"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
         <v>126</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>5</v>
@@ -1453,7 +1453,7 @@
         <v>127</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>5</v>
@@ -1489,7 +1489,6 @@
         <v>133</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="12"/>
       <c r="D33" s="2"/>
       <c r="E33" s="8"/>
     </row>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="147">
   <si>
     <t>TCID</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>PUBLONS028</t>
-  </si>
-  <si>
-    <t>OPQA-5901</t>
   </si>
   <si>
     <t>OPQA-5902</t>
@@ -995,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,13 +1429,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>5</v>
@@ -1447,13 +1444,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>5</v>
@@ -1465,10 +1462,10 @@
         <v>117</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>5</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="12"/>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2"/>
       <c r="D33" s="2"/>
@@ -1494,7 +1491,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="12"/>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="12"/>
@@ -1512,7 +1509,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="12"/>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="12"/>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="12"/>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="12"/>
@@ -1548,13 +1545,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>5</v>
@@ -1563,13 +1560,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>5</v>
@@ -1613,11 +1610,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29:B30" r:id="rId1" display="https://jira.clarivate.io/browse/OPQA-5898"/>
-    <hyperlink ref="B40:B41" r:id="rId2" display="https://jira.clarivate.io/browse/OPQA-5898"/>
+    <hyperlink ref="B40:B41" r:id="rId1" display="https://jira.clarivate.io/browse/OPQA-5898"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="151">
   <si>
     <t>TCID</t>
   </si>
@@ -487,15 +487,9 @@
     <t>OPQA-5903</t>
   </si>
   <si>
-    <t>OPQA-5904</t>
-  </si>
-  <si>
     <t>PUBLONS033</t>
   </si>
   <si>
-    <t>Verify user cannot log in and it should display appropriate error messag when Matching account exist in platform but in blocked state.</t>
-  </si>
-  <si>
     <t>Verify user cannot log in and it should display appropriate error message when Matching account exist in platform but in evicted state.</t>
   </si>
   <si>
@@ -533,6 +527,24 @@
   </si>
   <si>
     <t>PUBLONS041</t>
+  </si>
+  <si>
+    <t>PUBLONS042</t>
+  </si>
+  <si>
+    <t>PUBLONS043</t>
+  </si>
+  <si>
+    <t>OPQA-5908</t>
+  </si>
+  <si>
+    <t>OPQA-5909</t>
+  </si>
+  <si>
+    <t>OPQA-5910</t>
+  </si>
+  <si>
+    <t>Verify error message user didn't enter correct password when matching account exist in STeAM and user sign in using facebook  from login page and enters incorrect password for matching account.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +645,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -656,6 +668,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,7 +1008,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1450,7 @@
         <v>126</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>5</v>
@@ -1462,10 +1477,10 @@
         <v>117</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>5</v>
@@ -1483,7 +1498,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2"/>
       <c r="D33" s="2"/>
@@ -1491,7 +1506,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="12"/>
@@ -1500,7 +1515,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="12"/>
@@ -1509,7 +1524,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="12"/>
@@ -1518,7 +1533,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="12"/>
@@ -1527,7 +1542,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="12"/>
@@ -1536,7 +1551,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="12"/>
@@ -1545,46 +1560,62 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,9 +1642,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B40:B41" r:id="rId1" display="https://jira.clarivate.io/browse/OPQA-5898"/>
+    <hyperlink ref="B42:B43" r:id="rId2" display="https://jira.clarivate.io/browse/OPQA-5898"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
   <si>
     <t>TCID</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>Verify error message user didn't enter correct password when matching account exist in STeAM and user sign in using facebook  from login page and enters incorrect password for matching account.</t>
+  </si>
+  <si>
+    <t>Verify error message user didn't enter correct password when matching account exist in STeAM and user sign in using Gmail  from login page and enters incorrect password for matching account.</t>
+  </si>
+  <si>
+    <t>Verify error message user didn't enter correct password when matching account exist in STeAM and user sign in using Linkedln  from login page and enters incorrect password for matching account.</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1602,7 @@
         <v>148</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>5</v>
@@ -1611,7 +1617,7 @@
         <v>149</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>5</v>

--- a/src/test/resources/xls/PUBLONS.xlsx
+++ b/src/test/resources/xls/PUBLONS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="155">
   <si>
     <t>TCID</t>
   </si>
@@ -499,12 +499,6 @@
     <t>Verify user cannot log in and it should display appropriate error message when Matching account  registered but not activated.</t>
   </si>
   <si>
-    <t>OPQA-5993</t>
-  </si>
-  <si>
-    <t>Verify User able to add alias account after click on "Add email address" and enter valid emil id .</t>
-  </si>
-  <si>
     <t>PUBLONS034</t>
   </si>
   <si>
@@ -551,6 +545,18 @@
   </si>
   <si>
     <t>Verify error message user didn't enter correct password when matching account exist in STeAM and user sign in using Linkedln  from login page and enters incorrect password for matching account.</t>
+  </si>
+  <si>
+    <t>OPQA-5993||OPQA-5995</t>
+  </si>
+  <si>
+    <t>Verify User able to add alias account after click on "Add email address" and  Verify that user received activation link,after click on activation link user is created and navigating to account setting page</t>
+  </si>
+  <si>
+    <t>Verify user can switch primary account within added alias account</t>
+  </si>
+  <si>
+    <t>OPQA-5998</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,15 +1484,15 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>5</v>
@@ -1497,9 +1503,15 @@
       <c r="A32" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,7 +1524,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="12"/>
@@ -1521,7 +1533,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="12"/>
@@ -1530,7 +1542,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="12"/>
@@ -1539,7 +1551,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="12"/>
@@ -1548,7 +1560,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="12"/>
@@ -1557,7 +1569,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="12"/>
@@ -1566,7 +1578,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>130</v>
@@ -1581,13 +1593,13 @@
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>5</v>
@@ -1596,13 +1608,13 @@
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>5</v>
@@ -1611,13 +1623,13 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>5</v>
